--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4D05A-6992-4F37-84BF-D92061694303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0231FE-BB71-44F0-B344-537475874C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Y:是 ; N:否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>經辦合理性說明</t>
   </si>
   <si>
@@ -239,10 +235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y:同意;N不同意</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主管覆核</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,6 +260,16 @@
   </si>
   <si>
     <t>主管第二次覆核時顯示欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:同意
+N:不同意</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -919,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -940,10 +942,10 @@
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -968,7 +970,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>13</v>
@@ -1049,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>22</v>
@@ -1068,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>32</v>
@@ -1087,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>15</v>
@@ -1138,12 +1140,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>35</v>
@@ -1155,8 +1157,8 @@
         <v>1</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="25" t="s">
-        <v>40</v>
+      <c r="G14" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,25 +1169,25 @@
         <v>38</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="33">
         <v>50</v>
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>12</v>
@@ -1195,7 +1197,7 @@
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1203,10 +1205,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>22</v>
@@ -1221,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>22</v>
@@ -1234,7 +1236,7 @@
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1245,10 +1247,10 @@
         <v>39</v>
       </c>
       <c r="C19" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="E19" s="33">
         <v>50</v>
@@ -1383,24 +1385,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
